--- a/ProjectDocuments/OSMSFederatedQueries.xlsx
+++ b/ProjectDocuments/OSMSFederatedQueries.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/OSMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/message-switch/main/ProjectDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="900" windowWidth="25400" windowHeight="14980"/>
+    <workbookView xWindow="32500" yWindow="-1260" windowWidth="25400" windowHeight="14980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Federated Queries" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Commercial Vehicle (AVQ)</t>
   </si>
   <si>
-    <t>Nlets States/GS/NA/VS/LP</t>
-  </si>
-  <si>
     <t>Nlets FM</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Serial number &amp; Type</t>
+  </si>
+  <si>
+    <t>Nlets and States/GS/NA/VS/LP</t>
   </si>
 </sst>
 </file>
@@ -548,9 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -621,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -655,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,7 +669,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -690,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -698,13 +696,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -720,18 +718,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -739,13 +737,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -753,27 +751,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -784,10 +782,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -795,27 +793,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -826,10 +824,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -846,7 +844,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -873,37 +871,37 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -911,10 +909,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -922,10 +920,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -933,10 +931,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -944,10 +942,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -955,18 +953,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -974,13 +972,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -988,13 +986,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1002,13 +1000,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1040,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1054,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1062,15 +1060,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1078,13 +1076,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1116,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1130,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1138,18 +1136,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
